--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1097.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1097.xlsx
@@ -351,10 +351,10 @@
         <v>1.275352832111017</v>
       </c>
       <c r="B1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.673301329637936</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1097.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1097.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.275352832111017</v>
+        <v>1.176199555397034</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>2.413364171981812</v>
       </c>
       <c r="C1">
         <v>15</v>
       </c>
       <c r="D1">
-        <v>1.673301329637936</v>
+        <v>2.337907314300537</v>
       </c>
       <c r="E1">
-        <v>1.087204219657652</v>
+        <v>1.202196359634399</v>
       </c>
     </row>
   </sheetData>
